--- a/ExecutionController/TestSet1.xlsx
+++ b/ExecutionController/TestSet1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="11">
   <si>
     <t>Status</t>
   </si>

--- a/ExecutionController/TestSet1.xlsx
+++ b/ExecutionController/TestSet1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="11">
   <si>
     <t>Status</t>
   </si>

--- a/ExecutionController/TestSet1.xlsx
+++ b/ExecutionController/TestSet1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3785" uniqueCount="11">
   <si>
     <t>Status</t>
   </si>

--- a/ExecutionController/TestSet1.xlsx
+++ b/ExecutionController/TestSet1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3785" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4545" uniqueCount="11">
   <si>
     <t>Status</t>
   </si>

--- a/ExecutionController/TestSet1.xlsx
+++ b/ExecutionController/TestSet1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4545" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5373" uniqueCount="11">
   <si>
     <t>Status</t>
   </si>
